--- a/www/生产订单排产信息表模板.xlsx
+++ b/www/生产订单排产信息表模板.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F42DC2-5025-4E67-8EA1-F10C6B9FF743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8734E7-AB00-4085-B8A6-529FDC7BB275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机台" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">机台!$A$1:$AG$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">机台!$A$1:$L$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">机台!$E$1:$AK$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">机台!$E$1:$P$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="277">
   <si>
     <t>机台编号</t>
   </si>
@@ -642,6 +641,242 @@
   <si>
     <t>订单备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产车间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品系列</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州赛普生物技术有限公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部生产部</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序12</t>
+  </si>
+  <si>
+    <t>工序13</t>
+  </si>
+  <si>
+    <t>生物耗材</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序2</t>
+  </si>
+  <si>
+    <t>工序3</t>
+  </si>
+  <si>
+    <t>工序4</t>
+  </si>
+  <si>
+    <t>工序5</t>
+  </si>
+  <si>
+    <t>工序6</t>
+  </si>
+  <si>
+    <t>工序7</t>
+  </si>
+  <si>
+    <t>工序8</t>
+  </si>
+  <si>
+    <t>工序9</t>
+  </si>
+  <si>
+    <t>工序10</t>
+  </si>
+  <si>
+    <t>工序11</t>
+  </si>
+  <si>
+    <t>工序14</t>
+  </si>
+  <si>
+    <t>工序15</t>
+  </si>
+  <si>
+    <t>工序16</t>
+  </si>
+  <si>
+    <t>工序17</t>
+  </si>
+  <si>
+    <t>工序18</t>
+  </si>
+  <si>
+    <t>工序19</t>
+  </si>
+  <si>
+    <t>工序20</t>
+  </si>
+  <si>
+    <t>工序21</t>
+  </si>
+  <si>
+    <t>工序22</t>
+  </si>
+  <si>
+    <t>工序23</t>
+  </si>
+  <si>
+    <t>工序24</t>
+  </si>
+  <si>
+    <t>工序25</t>
+  </si>
+  <si>
+    <t>工序26</t>
+  </si>
+  <si>
+    <t>工序27</t>
+  </si>
+  <si>
+    <t>工序28</t>
+  </si>
+  <si>
+    <t>工序29</t>
+  </si>
+  <si>
+    <t>工序30</t>
+  </si>
+  <si>
+    <t>工序31</t>
+  </si>
+  <si>
+    <t>工序32</t>
+  </si>
+  <si>
+    <t>工序33</t>
+  </si>
+  <si>
+    <t>工序34</t>
+  </si>
+  <si>
+    <t>工序35</t>
+  </si>
+  <si>
+    <t>工序36</t>
+  </si>
+  <si>
+    <t>工序37</t>
+  </si>
+  <si>
+    <t>工序38</t>
+  </si>
+  <si>
+    <t>工序39</t>
+  </si>
+  <si>
+    <t>工序40</t>
+  </si>
+  <si>
+    <t>工序41</t>
+  </si>
+  <si>
+    <t>工序42</t>
+  </si>
+  <si>
+    <t>工序43</t>
+  </si>
+  <si>
+    <t>工序44</t>
+  </si>
+  <si>
+    <t>工序45</t>
+  </si>
+  <si>
+    <t>工序46</t>
+  </si>
+  <si>
+    <t>工序47</t>
+  </si>
+  <si>
+    <t>工序48</t>
+  </si>
+  <si>
+    <t>工序49</t>
+  </si>
+  <si>
+    <t>工序50</t>
+  </si>
+  <si>
+    <t>工序51</t>
+  </si>
+  <si>
+    <t>工序52</t>
+  </si>
+  <si>
+    <t>工序53</t>
+  </si>
+  <si>
+    <t>工序54</t>
+  </si>
+  <si>
+    <t>工序55</t>
+  </si>
+  <si>
+    <t>工序56</t>
+  </si>
+  <si>
+    <t>工序57</t>
+  </si>
+  <si>
+    <t>工序58</t>
+  </si>
+  <si>
+    <t>工序59</t>
+  </si>
+  <si>
+    <t>工序60</t>
+  </si>
+  <si>
+    <t>工序61</t>
+  </si>
+  <si>
+    <t>工序62</t>
+  </si>
+  <si>
+    <t>工序63</t>
+  </si>
+  <si>
+    <t>工序64</t>
+  </si>
+  <si>
+    <t>工序65</t>
+  </si>
+  <si>
+    <t>工序66</t>
+  </si>
+  <si>
+    <t>工序67</t>
+  </si>
+  <si>
+    <t>工序68</t>
+  </si>
+  <si>
+    <t>工序69</t>
   </si>
 </sst>
 </file>
@@ -750,7 +985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -929,8 +1164,9 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1207,11 +1443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1234,172 +1470,192 @@
     <col min="33" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="J1" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="49">
+      <c r="R1" s="49">
         <v>44681</v>
       </c>
-      <c r="O1" s="49">
+      <c r="S1" s="49">
         <v>44682</v>
       </c>
-      <c r="P1" s="49">
+      <c r="T1" s="49">
         <v>44683</v>
       </c>
-      <c r="Q1" s="61">
+      <c r="U1" s="61">
         <v>44684</v>
       </c>
-      <c r="R1" s="61">
+      <c r="V1" s="61">
         <v>44685</v>
       </c>
-      <c r="S1" s="61">
+      <c r="W1" s="61">
         <v>44686</v>
       </c>
-      <c r="T1" s="61">
+      <c r="X1" s="61">
         <v>44687</v>
       </c>
-      <c r="U1" s="49">
+      <c r="Y1" s="49">
         <v>44688</v>
       </c>
-      <c r="V1" s="49">
+      <c r="Z1" s="49">
         <v>44689</v>
       </c>
-      <c r="W1" s="61">
+      <c r="AA1" s="61">
         <v>44690</v>
       </c>
-      <c r="X1" s="61">
+      <c r="AB1" s="61">
         <v>44691</v>
       </c>
-      <c r="Y1" s="61">
+      <c r="AC1" s="61">
         <v>44692</v>
       </c>
-      <c r="Z1" s="61">
+      <c r="AD1" s="61">
         <v>44693</v>
       </c>
-      <c r="AA1" s="61">
+      <c r="AE1" s="61">
         <v>44694</v>
       </c>
-      <c r="AB1" s="49">
+      <c r="AF1" s="49">
         <v>44695</v>
       </c>
-      <c r="AC1" s="49">
+      <c r="AG1" s="49">
         <v>44696</v>
       </c>
-      <c r="AD1" s="61">
+      <c r="AH1" s="61">
         <v>44697</v>
       </c>
-      <c r="AE1" s="61">
+      <c r="AI1" s="61">
         <v>44698</v>
       </c>
-      <c r="AF1" s="61">
+      <c r="AJ1" s="61">
         <v>44699</v>
       </c>
-      <c r="AG1" s="61">
+      <c r="AK1" s="61">
         <v>44700</v>
       </c>
-      <c r="AH1" s="61">
+      <c r="AL1" s="61">
         <v>44701</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:38" ht="66" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18">
+      <c r="F2" s="18">
         <v>802682</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="L2" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="I2" s="50">
+      <c r="M2" s="50">
         <v>625000</v>
       </c>
-      <c r="J2" s="50">
+      <c r="N2" s="50">
         <v>95</v>
       </c>
-      <c r="K2" s="50">
+      <c r="O2" s="50">
         <v>622167</v>
       </c>
-      <c r="L2" s="51">
-        <f>I2-K2-M2</f>
+      <c r="P2" s="51">
+        <f>M2-O2-Q2</f>
         <v>2779</v>
       </c>
-      <c r="M2" s="51">
-        <f>SUM(N2:AF2)</f>
+      <c r="Q2" s="51">
+        <f>SUM(R2:AJ2)</f>
         <v>54</v>
       </c>
-      <c r="N2" s="51">
+      <c r="R2" s="51">
         <v>10</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51">
         <v>11</v>
       </c>
-      <c r="Q2" s="51">
+      <c r="U2" s="51">
         <v>11</v>
       </c>
-      <c r="R2" s="51">
+      <c r="V2" s="51">
         <v>11</v>
       </c>
-      <c r="S2" s="51">
+      <c r="W2" s="51">
         <v>11</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
       <c r="X2" s="51"/>
       <c r="Y2" s="51"/>
       <c r="Z2" s="51"/>
@@ -1409,66 +1665,70 @@
       <c r="AD2" s="51"/>
       <c r="AE2" s="51"/>
       <c r="AF2" s="51"/>
-      <c r="AH2" s="2">
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AL2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:38" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="I3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="50">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="50">
         <v>500000</v>
       </c>
-      <c r="J3" s="50">
+      <c r="N3" s="50">
         <v>1</v>
       </c>
-      <c r="K3" s="50">
+      <c r="O3" s="50">
         <v>10343</v>
       </c>
-      <c r="L3" s="51">
-        <f>I3-K3-M3</f>
+      <c r="P3" s="51">
+        <f>M3-O3-Q3</f>
         <v>489558</v>
       </c>
-      <c r="M3" s="51">
-        <f t="shared" ref="M3:M34" si="0">SUM(N3:AF3)</f>
+      <c r="Q3" s="51">
+        <f t="shared" ref="Q3:Q34" si="0">SUM(R3:AJ3)</f>
         <v>99</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
       <c r="S3" s="51"/>
-      <c r="T3" s="51">
-        <v>11</v>
-      </c>
-      <c r="U3" s="51">
-        <v>11</v>
-      </c>
-      <c r="V3" s="51">
-        <v>11</v>
-      </c>
-      <c r="W3" s="51">
-        <v>11</v>
-      </c>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
       <c r="X3" s="51">
         <v>11</v>
       </c>
@@ -1484,74 +1744,94 @@
       <c r="AB3" s="51">
         <v>11</v>
       </c>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AH3" s="2">
+      <c r="AC3" s="51">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="51">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="51">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="51">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AL3" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:38" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="18">
+      <c r="F4" s="18">
         <v>802684</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="52">
+      <c r="L4" s="23"/>
+      <c r="M4" s="52">
         <v>1250000</v>
       </c>
-      <c r="J4" s="52">
+      <c r="N4" s="52">
         <v>100</v>
       </c>
-      <c r="K4" s="52">
+      <c r="O4" s="52">
         <v>1065194</v>
       </c>
-      <c r="L4" s="51">
-        <f t="shared" ref="L4:L43" si="1">I4-K4-M4</f>
+      <c r="P4" s="51">
+        <f t="shared" ref="P4:P43" si="1">M4-O4-Q4</f>
         <v>184750</v>
       </c>
-      <c r="M4" s="51">
+      <c r="Q4" s="51">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="N4" s="51">
-        <v>12</v>
-      </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="51">
-        <v>12</v>
-      </c>
       <c r="R4" s="51">
         <v>12</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S4" s="51"/>
+      <c r="T4" s="51">
+        <v>11</v>
+      </c>
+      <c r="U4" s="51">
+        <v>12</v>
+      </c>
+      <c r="V4" s="51">
+        <v>12</v>
+      </c>
+      <c r="W4" s="51">
         <v>9</v>
       </c>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
       <c r="X4" s="51"/>
       <c r="Y4" s="51"/>
       <c r="Z4" s="51"/>
@@ -1561,67 +1841,71 @@
       <c r="AD4" s="51"/>
       <c r="AE4" s="51"/>
       <c r="AF4" s="51"/>
-      <c r="AH4" s="2">
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AL4" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:38" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="18">
+      <c r="F5" s="18">
         <v>802684</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="J5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="50">
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="50">
         <v>1250000</v>
       </c>
-      <c r="J5" s="50">
+      <c r="N5" s="50">
         <v>1</v>
       </c>
-      <c r="K5" s="50">
+      <c r="O5" s="50">
         <v>0</v>
       </c>
-      <c r="L5" s="51">
+      <c r="P5" s="51">
         <f t="shared" si="1"/>
         <v>1249898</v>
       </c>
-      <c r="M5" s="51">
+      <c r="Q5" s="51">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
       <c r="R5" s="51"/>
-      <c r="S5" s="51">
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51">
         <v>3</v>
-      </c>
-      <c r="T5" s="51">
-        <v>12</v>
-      </c>
-      <c r="U5" s="51">
-        <v>12</v>
-      </c>
-      <c r="V5" s="51">
-        <v>12</v>
-      </c>
-      <c r="W5" s="51">
-        <v>12</v>
       </c>
       <c r="X5" s="51">
         <v>12</v>
@@ -1636,72 +1920,84 @@
         <v>12</v>
       </c>
       <c r="AB5" s="51">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="51">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="51">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="51">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="51">
         <v>3</v>
       </c>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="2">
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:38" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="26">
+      <c r="F6" s="26">
         <v>802682</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="G6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="H6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="J6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="53">
+      <c r="L6" s="23"/>
+      <c r="M6" s="53">
         <v>625000</v>
       </c>
-      <c r="J6" s="53">
+      <c r="N6" s="53">
         <v>65</v>
       </c>
-      <c r="K6" s="53">
+      <c r="O6" s="53">
         <v>383948</v>
       </c>
-      <c r="L6" s="51">
+      <c r="P6" s="51">
         <f t="shared" si="1"/>
         <v>240962</v>
       </c>
-      <c r="M6" s="51">
+      <c r="Q6" s="51">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="N6" s="51">
-        <v>11</v>
-      </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="51">
-        <v>11</v>
-      </c>
       <c r="R6" s="51">
         <v>11</v>
       </c>
-      <c r="S6" s="51">
-        <v>11</v>
-      </c>
+      <c r="S6" s="51"/>
       <c r="T6" s="51">
         <v>11</v>
       </c>
@@ -1712,82 +2008,96 @@
         <v>11</v>
       </c>
       <c r="W6" s="51">
+        <v>11</v>
+      </c>
+      <c r="X6" s="51">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="51">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="51">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="51">
         <v>2</v>
       </c>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
       <c r="AB6" s="51"/>
       <c r="AC6" s="51"/>
       <c r="AD6" s="51"/>
       <c r="AE6" s="51"/>
       <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:38" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="26">
+      <c r="F7" s="26">
         <v>802682</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="H7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="J7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="53">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="53">
         <v>0</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53">
+      <c r="N7" s="53"/>
+      <c r="O7" s="53">
         <v>0</v>
       </c>
-      <c r="L7" s="51">
+      <c r="P7" s="51">
         <f t="shared" si="1"/>
         <v>-97</v>
       </c>
-      <c r="M7" s="51">
+      <c r="Q7" s="51">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
       <c r="R7" s="51"/>
       <c r="S7" s="51"/>
       <c r="T7" s="51"/>
       <c r="U7" s="51"/>
       <c r="V7" s="51"/>
-      <c r="W7" s="51">
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51">
         <v>9</v>
-      </c>
-      <c r="X7" s="51">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="51">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="51">
-        <v>11</v>
-      </c>
-      <c r="AA7" s="51">
-        <v>11</v>
       </c>
       <c r="AB7" s="51">
         <v>11</v>
       </c>
-      <c r="AC7" s="51"/>
+      <c r="AC7" s="51">
+        <v>11</v>
+      </c>
       <c r="AD7" s="51">
         <v>11</v>
       </c>
@@ -1797,57 +2107,75 @@
       <c r="AF7" s="51">
         <v>11</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51">
         <v>11</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="51">
+        <v>11</v>
+      </c>
+      <c r="AJ7" s="51">
+        <v>11</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>11</v>
+      </c>
+      <c r="AL7" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:38" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="H8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="I8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="J8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="K8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="54">
+      <c r="L8" s="23"/>
+      <c r="M8" s="54">
         <v>1250000</v>
       </c>
-      <c r="J8" s="54">
+      <c r="N8" s="54">
         <v>100</v>
       </c>
-      <c r="K8" s="54">
+      <c r="O8" s="54">
         <v>1249048</v>
       </c>
-      <c r="L8" s="51">
+      <c r="P8" s="51">
         <f t="shared" si="1"/>
         <v>952</v>
       </c>
-      <c r="M8" s="51">
+      <c r="Q8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
       <c r="R8" s="51"/>
       <c r="S8" s="51"/>
       <c r="T8" s="51"/>
@@ -1863,51 +2191,63 @@
       <c r="AD8" s="51"/>
       <c r="AE8" s="51"/>
       <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
     </row>
-    <row r="9" spans="1:34" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:38" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="G9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="I9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="J9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="K9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="54">
+      <c r="L9" s="23"/>
+      <c r="M9" s="54">
         <v>625000</v>
       </c>
-      <c r="J9" s="54">
+      <c r="N9" s="54">
         <v>50</v>
       </c>
-      <c r="K9" s="54">
+      <c r="O9" s="54">
         <v>548638</v>
       </c>
-      <c r="L9" s="51">
+      <c r="P9" s="51">
         <f t="shared" si="1"/>
         <v>76362</v>
       </c>
-      <c r="M9" s="51">
+      <c r="Q9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
       <c r="R9" s="51"/>
       <c r="S9" s="51"/>
       <c r="T9" s="51"/>
@@ -1923,64 +2263,76 @@
       <c r="AD9" s="51"/>
       <c r="AE9" s="51"/>
       <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
     </row>
-    <row r="10" spans="1:34" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:38" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="26">
+      <c r="F10" s="26">
         <v>802685</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="G10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="I10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="J10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="54">
+      <c r="L10" s="23"/>
+      <c r="M10" s="54">
         <v>625000</v>
       </c>
-      <c r="J10" s="54">
+      <c r="N10" s="54">
         <v>50</v>
       </c>
-      <c r="K10" s="54">
+      <c r="O10" s="54">
         <v>565264</v>
       </c>
-      <c r="L10" s="51">
+      <c r="P10" s="51">
         <f t="shared" si="1"/>
         <v>59700</v>
       </c>
-      <c r="M10" s="51">
+      <c r="Q10" s="51">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="N10" s="51">
-        <v>9</v>
-      </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="51">
-        <v>9</v>
-      </c>
       <c r="R10" s="51">
         <v>9</v>
       </c>
       <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
+      <c r="T10" s="51">
+        <v>9</v>
+      </c>
+      <c r="U10" s="51">
+        <v>9</v>
+      </c>
+      <c r="V10" s="51">
+        <v>9</v>
+      </c>
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
       <c r="Y10" s="51"/>
@@ -1991,62 +2343,66 @@
       <c r="AD10" s="51"/>
       <c r="AE10" s="51"/>
       <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
     </row>
-    <row r="11" spans="1:34" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:38" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="26">
+      <c r="F11" s="26">
         <v>802685</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="G11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="H11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="I11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="J11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="K11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="53">
+      <c r="L11" s="23"/>
+      <c r="M11" s="53">
         <v>625000</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53">
+      <c r="N11" s="53"/>
+      <c r="O11" s="53">
         <v>0</v>
       </c>
-      <c r="L11" s="51">
+      <c r="P11" s="51">
         <f t="shared" si="1"/>
         <v>624941</v>
       </c>
-      <c r="M11" s="51">
+      <c r="Q11" s="51">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
-      <c r="S11" s="51">
-        <v>9</v>
-      </c>
-      <c r="T11" s="51">
-        <v>9</v>
-      </c>
-      <c r="U11" s="51">
-        <v>9</v>
-      </c>
-      <c r="V11" s="51">
-        <v>9</v>
-      </c>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
       <c r="W11" s="51">
         <v>9</v>
       </c>
@@ -2054,70 +2410,82 @@
         <v>9</v>
       </c>
       <c r="Y11" s="51">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="51">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="51">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="51">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="51">
         <v>5</v>
       </c>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
       <c r="AD11" s="51"/>
       <c r="AE11" s="51"/>
       <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
     </row>
-    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:38" s="3" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="F12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="H12" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="I12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="J12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="54">
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="54">
         <v>1500000</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="51">
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="51">
         <f t="shared" si="1"/>
         <v>1499700</v>
       </c>
-      <c r="M12" s="51">
+      <c r="Q12" s="51">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
-      <c r="T12" s="55">
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55">
         <v>15</v>
-      </c>
-      <c r="U12" s="55">
-        <v>35</v>
-      </c>
-      <c r="V12" s="55">
-        <v>35</v>
-      </c>
-      <c r="W12" s="55">
-        <v>35</v>
-      </c>
-      <c r="X12" s="55">
-        <v>35</v>
       </c>
       <c r="Y12" s="55">
         <v>35</v>
@@ -2131,71 +2499,83 @@
       <c r="AB12" s="55">
         <v>35</v>
       </c>
-      <c r="AC12" s="55"/>
+      <c r="AC12" s="55">
+        <v>35</v>
+      </c>
       <c r="AD12" s="55">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="55">
+        <v>35</v>
+      </c>
+      <c r="AF12" s="55">
+        <v>35</v>
+      </c>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55">
         <v>5</v>
       </c>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:38" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="H13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="I13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="J13" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="53">
+      <c r="L13" s="23"/>
+      <c r="M13" s="53">
         <v>57600</v>
       </c>
-      <c r="J13" s="53">
+      <c r="N13" s="53">
         <v>25</v>
       </c>
-      <c r="K13" s="53">
+      <c r="O13" s="53">
         <v>0</v>
       </c>
-      <c r="L13" s="51">
+      <c r="P13" s="51">
         <f t="shared" si="1"/>
         <v>57450</v>
       </c>
-      <c r="M13" s="51">
+      <c r="Q13" s="51">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51">
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51">
         <v>5</v>
-      </c>
-      <c r="S13" s="51">
-        <v>20</v>
-      </c>
-      <c r="T13" s="51">
-        <v>20</v>
-      </c>
-      <c r="U13" s="51">
-        <v>20</v>
-      </c>
-      <c r="V13" s="51">
-        <v>20</v>
       </c>
       <c r="W13" s="51">
         <v>20</v>
@@ -2207,71 +2587,91 @@
         <v>20</v>
       </c>
       <c r="Z13" s="51">
+        <v>20</v>
+      </c>
+      <c r="AA13" s="51">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="51">
+        <v>20</v>
+      </c>
+      <c r="AC13" s="51">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="51">
         <v>5</v>
       </c>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
       <c r="AE13" s="51"/>
       <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
     </row>
-    <row r="14" spans="1:34" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:38" s="4" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="I14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="J14" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="K14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="34">
+      <c r="L14" s="23"/>
+      <c r="M14" s="34">
         <v>375000</v>
       </c>
-      <c r="J14" s="34">
+      <c r="N14" s="34">
         <v>60</v>
       </c>
-      <c r="K14" s="34">
+      <c r="O14" s="34">
         <v>373321</v>
       </c>
-      <c r="L14" s="51">
+      <c r="P14" s="51">
         <f t="shared" si="1"/>
         <v>1653</v>
       </c>
-      <c r="M14" s="51">
+      <c r="Q14" s="51">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="N14" s="56">
+      <c r="R14" s="56">
         <v>11</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56">
+      <c r="S14" s="56"/>
+      <c r="T14" s="56">
         <v>11</v>
       </c>
-      <c r="Q14" s="56">
+      <c r="U14" s="56">
         <v>4</v>
       </c>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
       <c r="X14" s="62"/>
       <c r="Y14" s="62"/>
       <c r="Z14" s="62"/>
@@ -2281,64 +2681,68 @@
       <c r="AD14" s="62"/>
       <c r="AE14" s="62"/>
       <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
     </row>
-    <row r="15" spans="1:34" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:38" s="4" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="I15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="J15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="21">
+      <c r="L15" s="23"/>
+      <c r="M15" s="21">
         <v>625000</v>
       </c>
-      <c r="J15" s="21">
+      <c r="N15" s="21">
         <v>19</v>
       </c>
-      <c r="K15" s="21">
+      <c r="O15" s="21">
         <v>120700</v>
       </c>
-      <c r="L15" s="51">
+      <c r="P15" s="51">
         <f t="shared" si="1"/>
         <v>504190</v>
       </c>
-      <c r="M15" s="51">
+      <c r="Q15" s="51">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56">
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56">
         <v>7</v>
-      </c>
-      <c r="R15" s="56">
-        <v>11</v>
-      </c>
-      <c r="S15" s="56">
-        <v>11</v>
-      </c>
-      <c r="T15" s="56">
-        <v>11</v>
-      </c>
-      <c r="U15" s="56">
-        <v>11</v>
       </c>
       <c r="V15" s="56">
         <v>11</v>
@@ -2355,81 +2759,101 @@
       <c r="Z15" s="56">
         <v>11</v>
       </c>
-      <c r="AA15" s="62">
+      <c r="AA15" s="56">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="56">
+        <v>11</v>
+      </c>
+      <c r="AC15" s="56">
+        <v>11</v>
+      </c>
+      <c r="AD15" s="56">
+        <v>11</v>
+      </c>
+      <c r="AE15" s="62">
         <v>4</v>
       </c>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
       <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:38" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="H16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="I16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="J16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="50">
+      <c r="L16" s="23"/>
+      <c r="M16" s="50">
         <v>1500000</v>
       </c>
-      <c r="J16" s="50">
+      <c r="N16" s="50">
         <v>267</v>
       </c>
-      <c r="K16" s="50">
+      <c r="O16" s="50">
         <v>1377418</v>
       </c>
-      <c r="L16" s="51">
+      <c r="P16" s="51">
         <f t="shared" si="1"/>
         <v>122381</v>
       </c>
-      <c r="M16" s="51">
+      <c r="Q16" s="51">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="N16" s="51">
-        <v>34</v>
-      </c>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="51">
-        <v>34</v>
-      </c>
       <c r="R16" s="51">
         <v>34</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="51"/>
+      <c r="T16" s="51">
+        <v>34</v>
+      </c>
+      <c r="U16" s="51">
+        <v>34</v>
+      </c>
+      <c r="V16" s="51">
+        <v>34</v>
+      </c>
+      <c r="W16" s="51">
         <v>32</v>
       </c>
-      <c r="T16" s="51">
+      <c r="X16" s="51">
         <v>32</v>
       </c>
-      <c r="U16" s="51">
+      <c r="Y16" s="51">
         <v>1</v>
       </c>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
       <c r="Z16" s="51"/>
       <c r="AA16" s="51"/>
       <c r="AB16" s="51"/>
@@ -2437,64 +2861,68 @@
       <c r="AD16" s="51"/>
       <c r="AE16" s="51"/>
       <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:36" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="G17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="I17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="J17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="50">
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="50">
         <v>1500000</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50">
+      <c r="N17" s="50"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
-      <c r="L17" s="51">
+      <c r="P17" s="51">
         <f t="shared" si="1"/>
         <v>1499700</v>
       </c>
-      <c r="M17" s="51">
+      <c r="Q17" s="51">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
       <c r="R17" s="51"/>
       <c r="S17" s="51"/>
       <c r="T17" s="51"/>
-      <c r="U17" s="51">
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51">
         <v>31</v>
-      </c>
-      <c r="V17" s="51">
-        <v>32</v>
-      </c>
-      <c r="W17" s="51">
-        <v>32</v>
-      </c>
-      <c r="X17" s="51">
-        <v>32</v>
-      </c>
-      <c r="Y17" s="51">
-        <v>32</v>
       </c>
       <c r="Z17" s="51">
         <v>32</v>
@@ -2505,59 +2933,79 @@
       <c r="AB17" s="51">
         <v>32</v>
       </c>
-      <c r="AC17" s="51"/>
+      <c r="AC17" s="51">
+        <v>32</v>
+      </c>
       <c r="AD17" s="51">
         <v>32</v>
       </c>
       <c r="AE17" s="51">
+        <v>32</v>
+      </c>
+      <c r="AF17" s="51">
+        <v>32</v>
+      </c>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51">
+        <v>32</v>
+      </c>
+      <c r="AI17" s="51">
         <v>13</v>
       </c>
-      <c r="AF17" s="51"/>
+      <c r="AJ17" s="51"/>
     </row>
-    <row r="18" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:36" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="F18" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="G18" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="I18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="J18" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="K18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="52">
+      <c r="L18" s="23"/>
+      <c r="M18" s="52">
         <v>625000</v>
       </c>
-      <c r="J18" s="52">
+      <c r="N18" s="52">
         <v>50</v>
       </c>
-      <c r="K18" s="52">
+      <c r="O18" s="52">
         <v>624658</v>
       </c>
-      <c r="L18" s="51">
+      <c r="P18" s="51">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="M18" s="51">
+      <c r="Q18" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
       <c r="T18" s="51"/>
@@ -2573,67 +3021,79 @@
       <c r="AD18" s="51"/>
       <c r="AE18" s="51"/>
       <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
     </row>
-    <row r="19" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:36" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="F19" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="G19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="H19" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="I19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="J19" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="K19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="34">
+      <c r="L19" s="23"/>
+      <c r="M19" s="34">
         <v>625000</v>
       </c>
-      <c r="J19" s="34">
+      <c r="N19" s="34">
         <v>50</v>
       </c>
-      <c r="K19" s="34">
+      <c r="O19" s="34">
         <v>469588</v>
       </c>
-      <c r="L19" s="51">
+      <c r="P19" s="51">
         <f t="shared" si="1"/>
         <v>155367</v>
       </c>
-      <c r="M19" s="51">
+      <c r="Q19" s="51">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="N19" s="51">
-        <v>9</v>
-      </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="51">
-        <v>9</v>
-      </c>
       <c r="R19" s="51">
         <v>9</v>
       </c>
-      <c r="S19" s="51">
+      <c r="S19" s="51"/>
+      <c r="T19" s="51">
         <v>9</v>
       </c>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
+      <c r="U19" s="51">
+        <v>9</v>
+      </c>
+      <c r="V19" s="51">
+        <v>9</v>
+      </c>
+      <c r="W19" s="51">
+        <v>9</v>
+      </c>
       <c r="X19" s="51"/>
       <c r="Y19" s="51"/>
       <c r="Z19" s="51"/>
@@ -2643,119 +3103,143 @@
       <c r="AD19" s="51"/>
       <c r="AE19" s="51"/>
       <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
     </row>
-    <row r="20" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:36" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="F20" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="G20" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="H20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="I20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="J20" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="21">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="21">
         <v>625000</v>
       </c>
-      <c r="J20" s="21">
+      <c r="N20" s="21">
         <v>1</v>
       </c>
-      <c r="K20" s="21">
+      <c r="O20" s="21">
         <v>0</v>
       </c>
-      <c r="L20" s="51">
+      <c r="P20" s="51">
         <f t="shared" si="1"/>
         <v>624951</v>
       </c>
-      <c r="M20" s="51">
+      <c r="Q20" s="51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
       <c r="R20" s="51"/>
       <c r="S20" s="51"/>
-      <c r="T20" s="51">
-        <v>9</v>
-      </c>
-      <c r="U20" s="51">
-        <v>9</v>
-      </c>
-      <c r="V20" s="51">
-        <v>9</v>
-      </c>
-      <c r="W20" s="51">
-        <v>9</v>
-      </c>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
       <c r="X20" s="51">
         <v>9</v>
       </c>
       <c r="Y20" s="51">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="51">
+        <v>9</v>
+      </c>
+      <c r="AA20" s="51">
+        <v>9</v>
+      </c>
+      <c r="AB20" s="51">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="51">
         <v>4</v>
       </c>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
     </row>
-    <row r="21" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:36" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="G21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="H21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="I21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="J21" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="50">
+      <c r="L21" s="23"/>
+      <c r="M21" s="50">
         <v>375000</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50">
+      <c r="N21" s="50"/>
+      <c r="O21" s="50">
         <v>0</v>
       </c>
-      <c r="L21" s="51">
+      <c r="P21" s="51">
         <f t="shared" si="1"/>
         <v>375000</v>
       </c>
-      <c r="M21" s="51">
+      <c r="Q21" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
@@ -2771,63 +3255,67 @@
       <c r="AD21" s="51"/>
       <c r="AE21" s="51"/>
       <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
     </row>
-    <row r="22" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:36" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="26">
+      <c r="F22" s="26">
         <v>802685</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="G22" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="H22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="I22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="J22" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="K22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="50">
+      <c r="L22" s="23"/>
+      <c r="M22" s="50">
         <v>625000</v>
       </c>
-      <c r="J22" s="50">
+      <c r="N22" s="50">
         <v>9</v>
       </c>
-      <c r="K22" s="50">
+      <c r="O22" s="50">
         <v>55528</v>
       </c>
-      <c r="L22" s="51">
+      <c r="P22" s="51">
         <f t="shared" si="1"/>
         <v>569411</v>
       </c>
-      <c r="M22" s="51">
+      <c r="Q22" s="51">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="N22" s="51">
-        <v>4</v>
-      </c>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="51">
-        <v>4</v>
-      </c>
       <c r="R22" s="51">
         <v>4</v>
       </c>
-      <c r="S22" s="51">
-        <v>4</v>
-      </c>
+      <c r="S22" s="51"/>
       <c r="T22" s="51">
         <v>4</v>
       </c>
@@ -2859,68 +3347,80 @@
         <v>4</v>
       </c>
       <c r="AD22" s="51">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="51">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="51">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="51">
+        <v>4</v>
+      </c>
+      <c r="AH22" s="51">
         <v>1</v>
       </c>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="F23" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="G23" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="H23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="I23" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="J23" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="K23" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="21">
+      <c r="L23" s="23"/>
+      <c r="M23" s="21">
         <v>1000000</v>
       </c>
-      <c r="J23" s="21">
+      <c r="N23" s="21">
         <v>3</v>
       </c>
-      <c r="K23" s="21">
+      <c r="O23" s="21">
         <v>58255</v>
       </c>
-      <c r="L23" s="51">
+      <c r="P23" s="51">
         <f t="shared" si="1"/>
         <v>941691</v>
       </c>
-      <c r="M23" s="51">
+      <c r="Q23" s="51">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51">
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51">
         <v>1</v>
-      </c>
-      <c r="R23" s="51">
-        <v>6</v>
-      </c>
-      <c r="S23" s="51">
-        <v>6</v>
-      </c>
-      <c r="T23" s="51">
-        <v>6</v>
-      </c>
-      <c r="U23" s="51">
-        <v>6</v>
       </c>
       <c r="V23" s="51">
         <v>6</v>
@@ -2935,59 +3435,79 @@
         <v>6</v>
       </c>
       <c r="Z23" s="51">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="51">
+        <v>6</v>
+      </c>
+      <c r="AB23" s="51">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="51">
+        <v>6</v>
+      </c>
+      <c r="AD23" s="51">
         <v>5</v>
       </c>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
       <c r="AE23" s="51"/>
       <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="G24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="H24" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="I24" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="J24" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="K24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="54">
+      <c r="L24" s="23"/>
+      <c r="M24" s="54">
         <v>1000000</v>
       </c>
-      <c r="J24" s="54">
+      <c r="N24" s="54">
         <v>50</v>
       </c>
-      <c r="K24" s="54">
+      <c r="O24" s="54">
         <v>994967</v>
       </c>
-      <c r="L24" s="51">
+      <c r="P24" s="51">
         <f t="shared" si="1"/>
         <v>5033</v>
       </c>
-      <c r="M24" s="51">
+      <c r="Q24" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
       <c r="S24" s="51"/>
       <c r="T24" s="51"/>
@@ -3003,73 +3523,85 @@
       <c r="AD24" s="51"/>
       <c r="AE24" s="51"/>
       <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="F25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="G25" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="H25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="I25" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="J25" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="K25" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="53">
+      <c r="L25" s="23"/>
+      <c r="M25" s="53">
         <v>1000000</v>
       </c>
-      <c r="J25" s="53">
+      <c r="N25" s="53">
         <v>40</v>
       </c>
-      <c r="K25" s="53">
+      <c r="O25" s="53">
         <v>658419</v>
       </c>
-      <c r="L25" s="51">
+      <c r="P25" s="51">
         <f t="shared" si="1"/>
         <v>341541</v>
       </c>
-      <c r="M25" s="51">
+      <c r="Q25" s="51">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="N25" s="51">
-        <v>6</v>
-      </c>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="51">
-        <v>6</v>
-      </c>
       <c r="R25" s="51">
         <v>6</v>
       </c>
-      <c r="S25" s="51">
-        <v>6</v>
-      </c>
+      <c r="S25" s="51"/>
       <c r="T25" s="51">
         <v>6</v>
       </c>
       <c r="U25" s="51">
+        <v>6</v>
+      </c>
+      <c r="V25" s="51">
+        <v>6</v>
+      </c>
+      <c r="W25" s="51">
+        <v>6</v>
+      </c>
+      <c r="X25" s="51">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="51">
         <v>4</v>
       </c>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
       <c r="AA25" s="51"/>
       <c r="AB25" s="51"/>
@@ -3077,64 +3609,68 @@
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="G26" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="H26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="I26" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="J26" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="53">
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="53">
         <v>1000000</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53">
+      <c r="N26" s="53"/>
+      <c r="O26" s="53">
         <v>0</v>
       </c>
-      <c r="L26" s="51">
+      <c r="P26" s="51">
         <f t="shared" si="1"/>
         <v>999950</v>
       </c>
-      <c r="M26" s="51">
+      <c r="Q26" s="51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
       <c r="R26" s="51"/>
       <c r="S26" s="51"/>
       <c r="T26" s="51"/>
-      <c r="U26" s="51">
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51">
         <v>2</v>
-      </c>
-      <c r="V26" s="51">
-        <v>6</v>
-      </c>
-      <c r="W26" s="51">
-        <v>6</v>
-      </c>
-      <c r="X26" s="51">
-        <v>6</v>
-      </c>
-      <c r="Y26" s="51">
-        <v>6</v>
       </c>
       <c r="Z26" s="51">
         <v>6</v>
@@ -3145,69 +3681,81 @@
       <c r="AB26" s="51">
         <v>6</v>
       </c>
-      <c r="AC26" s="51"/>
+      <c r="AC26" s="51">
+        <v>6</v>
+      </c>
       <c r="AD26" s="51">
         <v>6</v>
       </c>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
+      <c r="AE26" s="51">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="51">
+        <v>6</v>
+      </c>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51">
+        <v>6</v>
+      </c>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="G27" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="H27" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="I27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="J27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="K27" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="53">
+      <c r="L27" s="23"/>
+      <c r="M27" s="53">
         <v>1000000</v>
       </c>
-      <c r="J27" s="53">
+      <c r="N27" s="53">
         <v>31</v>
       </c>
-      <c r="K27" s="53">
+      <c r="O27" s="53">
         <v>495578</v>
       </c>
-      <c r="L27" s="51">
+      <c r="P27" s="51">
         <f t="shared" si="1"/>
         <v>504376</v>
       </c>
-      <c r="M27" s="51">
+      <c r="Q27" s="51">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="N27" s="51">
+      <c r="R27" s="51">
         <v>3</v>
       </c>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="51">
-        <v>6</v>
-      </c>
-      <c r="R27" s="51">
-        <v>6</v>
-      </c>
-      <c r="S27" s="51">
-        <v>6</v>
-      </c>
+      <c r="S27" s="51"/>
       <c r="T27" s="51">
         <v>6</v>
       </c>
@@ -3218,82 +3766,96 @@
         <v>6</v>
       </c>
       <c r="W27" s="51">
+        <v>6</v>
+      </c>
+      <c r="X27" s="51">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="51">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="51">
+        <v>6</v>
+      </c>
+      <c r="AA27" s="51">
         <v>1</v>
       </c>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
       <c r="AB27" s="51"/>
       <c r="AC27" s="51"/>
       <c r="AD27" s="51"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="G28" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="H28" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="I28" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="J28" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="53">
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="53">
         <v>1000000</v>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53">
+      <c r="N28" s="53"/>
+      <c r="O28" s="53">
         <v>0</v>
       </c>
-      <c r="L28" s="51">
+      <c r="P28" s="51">
         <f t="shared" si="1"/>
         <v>999950</v>
       </c>
-      <c r="M28" s="51">
+      <c r="Q28" s="51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
       <c r="R28" s="51"/>
       <c r="S28" s="51"/>
       <c r="T28" s="51"/>
       <c r="U28" s="51"/>
       <c r="V28" s="51"/>
-      <c r="W28" s="51">
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51">
         <v>5</v>
-      </c>
-      <c r="X28" s="51">
-        <v>6</v>
-      </c>
-      <c r="Y28" s="51">
-        <v>6</v>
-      </c>
-      <c r="Z28" s="51">
-        <v>6</v>
-      </c>
-      <c r="AA28" s="51">
-        <v>6</v>
       </c>
       <c r="AB28" s="51">
         <v>6</v>
       </c>
-      <c r="AC28" s="51"/>
+      <c r="AC28" s="51">
+        <v>6</v>
+      </c>
       <c r="AD28" s="51">
         <v>6</v>
       </c>
@@ -3301,53 +3863,71 @@
         <v>6</v>
       </c>
       <c r="AF28" s="51">
+        <v>6</v>
+      </c>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51">
+        <v>6</v>
+      </c>
+      <c r="AI28" s="51">
+        <v>6</v>
+      </c>
+      <c r="AJ28" s="51">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="F29" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="G29" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="H29" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="I29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="J29" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="K29" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="57">
+      <c r="L29" s="23"/>
+      <c r="M29" s="57">
         <v>1000000</v>
       </c>
-      <c r="J29" s="57">
+      <c r="N29" s="57">
         <v>50</v>
       </c>
-      <c r="K29" s="57">
+      <c r="O29" s="57">
         <v>440000</v>
       </c>
-      <c r="L29" s="51">
+      <c r="P29" s="51">
         <f t="shared" si="1"/>
         <v>560000</v>
       </c>
-      <c r="M29" s="51">
+      <c r="Q29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
       <c r="S29" s="51"/>
       <c r="T29" s="51"/>
@@ -3363,51 +3943,63 @@
       <c r="AD29" s="51"/>
       <c r="AE29" s="51"/>
       <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="F30" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="G30" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="H30" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="I30" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="J30" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="K30" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="57">
+      <c r="L30" s="23"/>
+      <c r="M30" s="57">
         <v>1000000</v>
       </c>
-      <c r="J30" s="57">
+      <c r="N30" s="57">
         <v>50</v>
       </c>
-      <c r="K30" s="57">
+      <c r="O30" s="57">
         <v>600000</v>
       </c>
-      <c r="L30" s="51">
+      <c r="P30" s="51">
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
-      <c r="M30" s="51">
+      <c r="Q30" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
       <c r="R30" s="51"/>
       <c r="S30" s="51"/>
       <c r="T30" s="51"/>
@@ -3423,51 +4015,63 @@
       <c r="AD30" s="51"/>
       <c r="AE30" s="51"/>
       <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="F31" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="G31" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="H31" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="I31" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="J31" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="K31" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="57">
+      <c r="L31" s="23"/>
+      <c r="M31" s="57">
         <v>1000000</v>
       </c>
-      <c r="J31" s="57">
+      <c r="N31" s="57">
         <v>50</v>
       </c>
-      <c r="K31" s="57">
+      <c r="O31" s="57">
         <v>460000</v>
       </c>
-      <c r="L31" s="51">
+      <c r="P31" s="51">
         <f t="shared" si="1"/>
         <v>540000</v>
       </c>
-      <c r="M31" s="51">
+      <c r="Q31" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
       <c r="R31" s="51"/>
       <c r="S31" s="51"/>
       <c r="T31" s="51"/>
@@ -3483,61 +4087,73 @@
       <c r="AD31" s="51"/>
       <c r="AE31" s="51"/>
       <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="G32" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="H32" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="I32" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="J32" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="K32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="54">
+      <c r="L32" s="23"/>
+      <c r="M32" s="54">
         <v>1000000</v>
       </c>
-      <c r="J32" s="54">
+      <c r="N32" s="54">
         <v>50</v>
       </c>
-      <c r="K32" s="54">
+      <c r="O32" s="54">
         <v>993343</v>
       </c>
-      <c r="L32" s="51">
+      <c r="P32" s="51">
         <f t="shared" si="1"/>
         <v>6639</v>
       </c>
-      <c r="M32" s="51">
+      <c r="Q32" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N32" s="51">
+      <c r="R32" s="51">
         <v>6</v>
       </c>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51">
+      <c r="S32" s="51"/>
+      <c r="T32" s="51">
         <v>8</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="U32" s="51">
         <v>4</v>
       </c>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
       <c r="V32" s="51"/>
       <c r="W32" s="51"/>
       <c r="X32" s="51"/>
@@ -3549,64 +4165,68 @@
       <c r="AD32" s="51"/>
       <c r="AE32" s="51"/>
       <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="F33" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="G33" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="H33" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="I33" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="J33" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="K33" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="21">
+      <c r="L33" s="23"/>
+      <c r="M33" s="21">
         <v>2000000</v>
       </c>
-      <c r="J33" s="21">
+      <c r="N33" s="21">
         <v>18</v>
       </c>
-      <c r="K33" s="21">
+      <c r="O33" s="21">
         <v>224185</v>
       </c>
-      <c r="L33" s="51">
+      <c r="P33" s="51">
         <f t="shared" si="1"/>
         <v>1775713</v>
       </c>
-      <c r="M33" s="51">
+      <c r="Q33" s="51">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51">
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51">
         <v>4</v>
-      </c>
-      <c r="R33" s="51">
-        <v>8</v>
-      </c>
-      <c r="S33" s="51">
-        <v>8</v>
-      </c>
-      <c r="T33" s="51">
-        <v>8</v>
-      </c>
-      <c r="U33" s="51">
-        <v>8</v>
       </c>
       <c r="V33" s="51">
         <v>8</v>
@@ -3629,50 +4249,70 @@
       <c r="AB33" s="51">
         <v>8</v>
       </c>
-      <c r="AC33" s="51"/>
+      <c r="AC33" s="51">
+        <v>8</v>
+      </c>
       <c r="AD33" s="51">
         <v>8</v>
       </c>
       <c r="AE33" s="51">
+        <v>8</v>
+      </c>
+      <c r="AF33" s="51">
+        <v>8</v>
+      </c>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51">
+        <v>8</v>
+      </c>
+      <c r="AI33" s="51">
         <v>2</v>
       </c>
-      <c r="AF33" s="51"/>
+      <c r="AJ33" s="51"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="24" t="e">
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="53">
+      <c r="L34" s="24"/>
+      <c r="M34" s="53">
         <v>0</v>
       </c>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53">
+      <c r="N34" s="53"/>
+      <c r="O34" s="53">
         <v>0</v>
       </c>
-      <c r="L34" s="51">
+      <c r="P34" s="51">
         <f t="shared" si="1"/>
         <v>-28</v>
       </c>
-      <c r="M34" s="51">
+      <c r="Q34" s="51">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="N34" s="51">
+      <c r="R34" s="51">
         <v>28</v>
       </c>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
       <c r="S34" s="51"/>
       <c r="T34" s="51"/>
       <c r="U34" s="51"/>
@@ -3687,65 +4327,77 @@
       <c r="AD34" s="51"/>
       <c r="AE34" s="51"/>
       <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="F35" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="G35" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22" t="s">
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="K35" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="53">
+      <c r="L35" s="23"/>
+      <c r="M35" s="53">
         <v>80000</v>
       </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53">
+      <c r="N35" s="53"/>
+      <c r="O35" s="53">
         <v>16360</v>
       </c>
-      <c r="L35" s="51">
+      <c r="P35" s="51">
         <f t="shared" si="1"/>
         <v>62130</v>
       </c>
-      <c r="M35" s="51">
-        <f t="shared" ref="M35:M66" si="2">SUM(N35:AF35)</f>
+      <c r="Q35" s="51">
+        <f t="shared" ref="Q35:Q66" si="2">SUM(R35:AJ35)</f>
         <v>1510</v>
       </c>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51">
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51">
         <v>110</v>
-      </c>
-      <c r="Q35" s="51">
-        <v>280</v>
-      </c>
-      <c r="R35" s="51">
-        <v>280</v>
-      </c>
-      <c r="S35" s="51">
-        <v>280</v>
-      </c>
-      <c r="T35" s="51">
-        <v>280</v>
       </c>
       <c r="U35" s="51">
         <v>280</v>
       </c>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
+      <c r="V35" s="51">
+        <v>280</v>
+      </c>
+      <c r="W35" s="51">
+        <v>280</v>
+      </c>
+      <c r="X35" s="51">
+        <v>280</v>
+      </c>
+      <c r="Y35" s="51">
+        <v>280</v>
+      </c>
       <c r="Z35" s="51"/>
       <c r="AA35" s="51"/>
       <c r="AB35" s="51"/>
@@ -3753,57 +4405,61 @@
       <c r="AD35" s="51"/>
       <c r="AE35" s="51"/>
       <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="F36" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="G36" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22" t="s">
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="K36" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="53">
+      <c r="L36" s="23"/>
+      <c r="M36" s="53">
         <v>80000</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53">
+      <c r="N36" s="53"/>
+      <c r="O36" s="53">
         <v>16360</v>
       </c>
-      <c r="L36" s="51">
+      <c r="P36" s="51">
         <f t="shared" si="1"/>
         <v>62100</v>
       </c>
-      <c r="M36" s="51">
+      <c r="Q36" s="51">
         <f t="shared" si="2"/>
         <v>1540</v>
       </c>
-      <c r="N36" s="51">
-        <v>110</v>
-      </c>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51">
-        <v>110</v>
-      </c>
-      <c r="Q36" s="51">
-        <v>110</v>
-      </c>
       <c r="R36" s="51">
         <v>110</v>
       </c>
-      <c r="S36" s="51">
-        <v>110</v>
-      </c>
+      <c r="S36" s="51"/>
       <c r="T36" s="51">
         <v>110</v>
       </c>
@@ -3831,67 +4487,79 @@
       <c r="AB36" s="51">
         <v>110</v>
       </c>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
+      <c r="AC36" s="51">
+        <v>110</v>
+      </c>
+      <c r="AD36" s="51">
+        <v>110</v>
+      </c>
+      <c r="AE36" s="51">
+        <v>110</v>
+      </c>
+      <c r="AF36" s="51">
+        <v>110</v>
+      </c>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="18">
+      <c r="F37" s="18">
         <v>802186</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="G37" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="H37" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="J37" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="K37" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="53">
+      <c r="L37" s="23"/>
+      <c r="M37" s="53">
         <v>38400</v>
       </c>
-      <c r="J37" s="53">
+      <c r="N37" s="53">
         <v>47</v>
       </c>
-      <c r="K37" s="53">
+      <c r="O37" s="53">
         <v>14204</v>
       </c>
-      <c r="L37" s="51">
+      <c r="P37" s="51">
         <f t="shared" si="1"/>
         <v>24096</v>
       </c>
-      <c r="M37" s="51">
+      <c r="Q37" s="51">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="N37" s="51">
+      <c r="R37" s="51">
         <v>7</v>
       </c>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="51">
-        <v>10</v>
-      </c>
-      <c r="R37" s="51">
-        <v>10</v>
-      </c>
-      <c r="S37" s="51">
-        <v>10</v>
-      </c>
+      <c r="S37" s="51"/>
       <c r="T37" s="51">
         <v>10</v>
       </c>
@@ -3908,60 +4576,80 @@
         <v>10</v>
       </c>
       <c r="Y37" s="51">
+        <v>10</v>
+      </c>
+      <c r="Z37" s="51">
+        <v>10</v>
+      </c>
+      <c r="AA37" s="51">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="51">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="51">
         <v>3</v>
       </c>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
       <c r="AD37" s="51"/>
       <c r="AE37" s="51"/>
       <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="37">
+      <c r="F38" s="37">
         <v>802192</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="G38" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="H38" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="I38" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="J38" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="K38" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="57">
+      <c r="L38" s="23"/>
+      <c r="M38" s="57">
         <v>19200</v>
       </c>
-      <c r="J38" s="57">
+      <c r="N38" s="57">
         <v>50</v>
       </c>
-      <c r="K38" s="57">
+      <c r="O38" s="57">
         <v>18909</v>
       </c>
-      <c r="L38" s="51">
+      <c r="P38" s="51">
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="M38" s="51">
+      <c r="Q38" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
       <c r="R38" s="51"/>
       <c r="S38" s="51"/>
       <c r="T38" s="51"/>
@@ -3977,70 +4665,82 @@
       <c r="AD38" s="51"/>
       <c r="AE38" s="51"/>
       <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+    <row r="39" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="39">
+      <c r="F39" s="39">
         <v>802189</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="G39" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="H39" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="I39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="J39" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="K39" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="53">
+      <c r="L39" s="23"/>
+      <c r="M39" s="53">
         <v>38400</v>
       </c>
-      <c r="J39" s="53">
+      <c r="N39" s="53">
         <v>90</v>
       </c>
-      <c r="K39" s="53">
+      <c r="O39" s="53">
         <v>32264</v>
       </c>
-      <c r="L39" s="51">
+      <c r="P39" s="51">
         <f t="shared" si="1"/>
         <v>6071</v>
       </c>
-      <c r="M39" s="51">
+      <c r="Q39" s="51">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="N39" s="51">
-        <v>11</v>
-      </c>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="51">
-        <v>11</v>
-      </c>
       <c r="R39" s="51">
         <v>11</v>
       </c>
-      <c r="S39" s="51">
+      <c r="S39" s="51"/>
+      <c r="T39" s="51">
         <v>11</v>
       </c>
-      <c r="T39" s="51">
+      <c r="U39" s="51">
+        <v>11</v>
+      </c>
+      <c r="V39" s="51">
+        <v>11</v>
+      </c>
+      <c r="W39" s="51">
+        <v>11</v>
+      </c>
+      <c r="X39" s="51">
         <v>10</v>
       </c>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
       <c r="Y39" s="51"/>
       <c r="Z39" s="51"/>
       <c r="AA39" s="51"/>
@@ -4049,63 +4749,67 @@
       <c r="AD39" s="51"/>
       <c r="AE39" s="51"/>
       <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="39">
+      <c r="F40" s="39">
         <v>802189</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="G40" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="H40" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="I40" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="J40" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="53">
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="53">
         <v>38400</v>
       </c>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53">
+      <c r="N40" s="53"/>
+      <c r="O40" s="53">
         <v>0</v>
       </c>
-      <c r="L40" s="51">
+      <c r="P40" s="51">
         <f t="shared" si="1"/>
         <v>38300</v>
       </c>
-      <c r="M40" s="51">
+      <c r="Q40" s="51">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
       <c r="R40" s="51"/>
       <c r="S40" s="51"/>
-      <c r="T40" s="51">
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51">
         <v>1</v>
-      </c>
-      <c r="U40" s="51">
-        <v>11</v>
-      </c>
-      <c r="V40" s="51">
-        <v>11</v>
-      </c>
-      <c r="W40" s="51">
-        <v>11</v>
-      </c>
-      <c r="X40" s="51">
-        <v>11</v>
       </c>
       <c r="Y40" s="51">
         <v>11</v>
@@ -4119,70 +4823,82 @@
       <c r="AB40" s="51">
         <v>11</v>
       </c>
-      <c r="AC40" s="51"/>
+      <c r="AC40" s="51">
+        <v>11</v>
+      </c>
       <c r="AD40" s="51">
         <v>11</v>
       </c>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
+      <c r="AE40" s="51">
+        <v>11</v>
+      </c>
+      <c r="AF40" s="51">
+        <v>11</v>
+      </c>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51">
+        <v>11</v>
+      </c>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="18">
+      <c r="F41" s="18">
         <v>802186</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="G41" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="H41" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="I41" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="J41" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="53">
+      <c r="L41" s="23"/>
+      <c r="M41" s="53">
         <v>57600</v>
       </c>
-      <c r="J41" s="53">
+      <c r="N41" s="53">
         <v>52</v>
       </c>
-      <c r="K41" s="53">
+      <c r="O41" s="53">
         <v>3840</v>
       </c>
-      <c r="L41" s="51">
+      <c r="P41" s="51">
         <f t="shared" si="1"/>
         <v>53611</v>
       </c>
-      <c r="M41" s="51">
+      <c r="Q41" s="51">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51">
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51">
         <v>11</v>
-      </c>
-      <c r="R41" s="51">
-        <v>20</v>
-      </c>
-      <c r="S41" s="51">
-        <v>20</v>
-      </c>
-      <c r="T41" s="51">
-        <v>20</v>
-      </c>
-      <c r="U41" s="51">
-        <v>20</v>
       </c>
       <c r="V41" s="51">
         <v>20</v>
@@ -4191,51 +4907,71 @@
         <v>20</v>
       </c>
       <c r="X41" s="51">
+        <v>20</v>
+      </c>
+      <c r="Y41" s="51">
+        <v>20</v>
+      </c>
+      <c r="Z41" s="51">
+        <v>20</v>
+      </c>
+      <c r="AA41" s="51">
+        <v>20</v>
+      </c>
+      <c r="AB41" s="51">
         <v>18</v>
       </c>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
       <c r="AC41" s="51"/>
       <c r="AD41" s="51"/>
       <c r="AE41" s="51"/>
       <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="18">
+      <c r="F42" s="18">
         <v>802186</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="G42" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="H42" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="I42" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="51">
+      <c r="J42" s="40"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M42" s="51">
+      <c r="Q42" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
       <c r="S42" s="51"/>
       <c r="T42" s="51"/>
@@ -4251,51 +4987,63 @@
       <c r="AD42" s="51"/>
       <c r="AE42" s="51"/>
       <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
     </row>
-    <row r="43" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:36" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="18">
+      <c r="F43" s="18">
         <v>802187</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="G43" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="H43" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="I43" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="67" t="s">
+      <c r="J43" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="K43" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="54">
+      <c r="L43" s="23"/>
+      <c r="M43" s="54">
         <v>25000</v>
       </c>
-      <c r="J43" s="54">
+      <c r="N43" s="54">
         <v>65</v>
       </c>
-      <c r="K43" s="54">
+      <c r="O43" s="54">
         <v>18456</v>
       </c>
-      <c r="L43" s="51">
+      <c r="P43" s="51">
         <f t="shared" si="1"/>
         <v>6544</v>
       </c>
-      <c r="M43" s="51">
+      <c r="Q43" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
       <c r="R43" s="51"/>
       <c r="S43" s="51"/>
       <c r="T43" s="51"/>
@@ -4311,73 +5059,85 @@
       <c r="AD43" s="51"/>
       <c r="AE43" s="51"/>
       <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="51"/>
+      <c r="AJ43" s="51"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="18">
+      <c r="F44" s="18">
         <v>802186</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="G44" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="H44" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="I44" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="J44" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="K44" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="53">
+      <c r="L44" s="23"/>
+      <c r="M44" s="53">
         <v>57600</v>
       </c>
-      <c r="J44" s="53">
+      <c r="N44" s="53">
         <v>113</v>
       </c>
-      <c r="K44" s="53">
+      <c r="O44" s="53">
         <v>36324</v>
       </c>
-      <c r="L44" s="51">
-        <f t="shared" ref="L44:L70" si="3">I44-K44-M44</f>
+      <c r="P44" s="51">
+        <f t="shared" ref="P44:P70" si="3">M44-O44-Q44</f>
         <v>21139</v>
       </c>
-      <c r="M44" s="51">
+      <c r="Q44" s="51">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="N44" s="51">
-        <v>20</v>
-      </c>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="51">
-        <v>20</v>
-      </c>
       <c r="R44" s="51">
         <v>20</v>
       </c>
-      <c r="S44" s="51">
-        <v>20</v>
-      </c>
+      <c r="S44" s="51"/>
       <c r="T44" s="51">
         <v>20</v>
       </c>
       <c r="U44" s="51">
+        <v>20</v>
+      </c>
+      <c r="V44" s="51">
+        <v>20</v>
+      </c>
+      <c r="W44" s="51">
+        <v>20</v>
+      </c>
+      <c r="X44" s="51">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="51">
         <v>17</v>
       </c>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
       <c r="Z44" s="51"/>
       <c r="AA44" s="51"/>
       <c r="AB44" s="51"/>
@@ -4385,64 +5145,68 @@
       <c r="AD44" s="51"/>
       <c r="AE44" s="51"/>
       <c r="AF44" s="51"/>
+      <c r="AG44" s="51"/>
+      <c r="AH44" s="51"/>
+      <c r="AI44" s="51"/>
+      <c r="AJ44" s="51"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="18">
+      <c r="F45" s="18">
         <v>802186</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="G45" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="H45" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="I45" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="J45" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="53">
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="53">
         <v>57600</v>
       </c>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53">
+      <c r="N45" s="53"/>
+      <c r="O45" s="53">
         <v>0</v>
       </c>
-      <c r="L45" s="51">
+      <c r="P45" s="51">
         <f t="shared" si="3"/>
         <v>57450</v>
       </c>
-      <c r="M45" s="51">
+      <c r="Q45" s="51">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
       <c r="R45" s="51"/>
       <c r="S45" s="51"/>
       <c r="T45" s="51"/>
-      <c r="U45" s="51">
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51">
         <v>3</v>
-      </c>
-      <c r="V45" s="51">
-        <v>20</v>
-      </c>
-      <c r="W45" s="51">
-        <v>20</v>
-      </c>
-      <c r="X45" s="51">
-        <v>20</v>
-      </c>
-      <c r="Y45" s="51">
-        <v>20</v>
       </c>
       <c r="Z45" s="51">
         <v>20</v>
@@ -4453,71 +5217,83 @@
       <c r="AB45" s="51">
         <v>20</v>
       </c>
-      <c r="AC45" s="51"/>
+      <c r="AC45" s="51">
+        <v>20</v>
+      </c>
       <c r="AD45" s="51">
+        <v>20</v>
+      </c>
+      <c r="AE45" s="51">
+        <v>20</v>
+      </c>
+      <c r="AF45" s="51">
+        <v>20</v>
+      </c>
+      <c r="AG45" s="51"/>
+      <c r="AH45" s="51">
         <v>7</v>
       </c>
-      <c r="AE45" s="51"/>
-      <c r="AF45" s="51"/>
+      <c r="AI45" s="51"/>
+      <c r="AJ45" s="51"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="F46" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="G46" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="H46" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="I46" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="66" t="s">
+      <c r="J46" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="K46" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="53">
+      <c r="L46" s="23"/>
+      <c r="M46" s="53">
         <v>750000</v>
       </c>
-      <c r="J46" s="53">
+      <c r="N46" s="53">
         <v>21</v>
       </c>
-      <c r="K46" s="53">
+      <c r="O46" s="53">
         <v>155670</v>
       </c>
-      <c r="L46" s="51">
+      <c r="P46" s="51">
         <f t="shared" si="3"/>
         <v>594286</v>
       </c>
-      <c r="M46" s="51">
+      <c r="Q46" s="51">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="N46" s="51">
+      <c r="R46" s="51">
         <v>2</v>
       </c>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51">
+      <c r="S46" s="51"/>
+      <c r="T46" s="51">
         <v>1</v>
-      </c>
-      <c r="Q46" s="51">
-        <v>4</v>
-      </c>
-      <c r="R46" s="51">
-        <v>4</v>
-      </c>
-      <c r="S46" s="51">
-        <v>4</v>
-      </c>
-      <c r="T46" s="51">
-        <v>4</v>
       </c>
       <c r="U46" s="51">
         <v>4</v>
@@ -4538,54 +5314,74 @@
         <v>4</v>
       </c>
       <c r="AA46" s="51">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="51">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="51">
+        <v>4</v>
+      </c>
+      <c r="AD46" s="51">
+        <v>4</v>
+      </c>
+      <c r="AE46" s="51">
         <v>1</v>
       </c>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-      <c r="AD46" s="51"/>
-      <c r="AE46" s="51"/>
       <c r="AF46" s="51"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="51"/>
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="51"/>
     </row>
-    <row r="47" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:36" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="F47" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="G47" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="H47" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="I47" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="J47" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="K47" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="53">
+      <c r="L47" s="23"/>
+      <c r="M47" s="53">
         <v>125000</v>
       </c>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="51">
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="51">
         <f t="shared" si="3"/>
         <v>125000</v>
       </c>
-      <c r="M47" s="51">
+      <c r="Q47" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
       <c r="R47" s="51"/>
       <c r="S47" s="51"/>
       <c r="T47" s="51"/>
@@ -4601,49 +5397,61 @@
       <c r="AD47" s="51"/>
       <c r="AE47" s="51"/>
       <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="F48" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="G48" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="H48" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="I48" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F48" s="66" t="s">
+      <c r="J48" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="K48" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="53">
+      <c r="L48" s="23"/>
+      <c r="M48" s="53">
         <v>375000</v>
       </c>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53">
+      <c r="N48" s="53"/>
+      <c r="O48" s="53">
         <v>85000</v>
       </c>
-      <c r="L48" s="51">
+      <c r="P48" s="51">
         <f t="shared" si="3"/>
         <v>290000</v>
       </c>
-      <c r="M48" s="51">
+      <c r="Q48" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
       <c r="R48" s="51"/>
       <c r="S48" s="51"/>
       <c r="T48" s="51"/>
@@ -4659,51 +5467,63 @@
       <c r="AD48" s="51"/>
       <c r="AE48" s="51"/>
       <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="18">
+      <c r="F49" s="18">
         <v>802682</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="G49" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="H49" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="I49" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="41" t="s">
+      <c r="J49" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="K49" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="52">
+      <c r="L49" s="23"/>
+      <c r="M49" s="52">
         <v>375000</v>
       </c>
-      <c r="J49" s="52">
+      <c r="N49" s="52">
         <v>60</v>
       </c>
-      <c r="K49" s="52">
+      <c r="O49" s="52">
         <v>371958</v>
       </c>
-      <c r="L49" s="51">
+      <c r="P49" s="51">
         <f t="shared" si="3"/>
         <v>3042</v>
       </c>
-      <c r="M49" s="51">
+      <c r="Q49" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
       <c r="R49" s="51"/>
       <c r="S49" s="51"/>
       <c r="T49" s="51"/>
@@ -4719,63 +5539,67 @@
       <c r="AD49" s="51"/>
       <c r="AE49" s="51"/>
       <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="51"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="18">
+      <c r="F50" s="18">
         <v>802682</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="G50" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="H50" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="I50" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="J50" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="K50" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="50">
+      <c r="L50" s="23"/>
+      <c r="M50" s="50">
         <v>625000</v>
       </c>
-      <c r="J50" s="50">
+      <c r="N50" s="50">
         <v>76</v>
       </c>
-      <c r="K50" s="50">
+      <c r="O50" s="50">
         <v>449605</v>
       </c>
-      <c r="L50" s="51">
+      <c r="P50" s="51">
         <f t="shared" si="3"/>
         <v>175321</v>
       </c>
-      <c r="M50" s="51">
+      <c r="Q50" s="51">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="N50" s="51">
-        <v>10</v>
-      </c>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="51">
-        <v>10</v>
-      </c>
       <c r="R50" s="51">
         <v>10</v>
       </c>
-      <c r="S50" s="51">
-        <v>10</v>
-      </c>
+      <c r="S50" s="51"/>
       <c r="T50" s="51">
         <v>10</v>
       </c>
@@ -4783,77 +5607,89 @@
         <v>10</v>
       </c>
       <c r="V50" s="51">
+        <v>10</v>
+      </c>
+      <c r="W50" s="51">
+        <v>10</v>
+      </c>
+      <c r="X50" s="51">
+        <v>10</v>
+      </c>
+      <c r="Y50" s="51">
+        <v>10</v>
+      </c>
+      <c r="Z50" s="51">
         <v>4</v>
       </c>
-      <c r="W50" s="51"/>
-      <c r="X50" s="51"/>
-      <c r="Y50" s="51"/>
-      <c r="Z50" s="51"/>
       <c r="AA50" s="51"/>
       <c r="AB50" s="51"/>
       <c r="AC50" s="51"/>
       <c r="AD50" s="51"/>
       <c r="AE50" s="51"/>
       <c r="AF50" s="51"/>
+      <c r="AG50" s="51"/>
+      <c r="AH50" s="51"/>
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="51"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="18">
+      <c r="F51" s="18">
         <v>802682</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="G51" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="H51" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="I51" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="J51" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="50">
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="50">
         <v>625000</v>
       </c>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50">
+      <c r="N51" s="50"/>
+      <c r="O51" s="50">
         <v>0</v>
       </c>
-      <c r="L51" s="51">
+      <c r="P51" s="51">
         <f t="shared" si="3"/>
         <v>624924</v>
       </c>
-      <c r="M51" s="51">
+      <c r="Q51" s="51">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
       <c r="R51" s="51"/>
       <c r="S51" s="51"/>
       <c r="T51" s="51"/>
       <c r="U51" s="51"/>
-      <c r="V51" s="51">
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51">
         <v>6</v>
-      </c>
-      <c r="W51" s="51">
-        <v>10</v>
-      </c>
-      <c r="X51" s="51">
-        <v>10</v>
-      </c>
-      <c r="Y51" s="51">
-        <v>10</v>
-      </c>
-      <c r="Z51" s="51">
-        <v>10</v>
       </c>
       <c r="AA51" s="51">
         <v>10</v>
@@ -4861,67 +5697,79 @@
       <c r="AB51" s="51">
         <v>10</v>
       </c>
-      <c r="AC51" s="51"/>
+      <c r="AC51" s="51">
+        <v>10</v>
+      </c>
       <c r="AD51" s="51">
         <v>10</v>
       </c>
-      <c r="AE51" s="51"/>
-      <c r="AF51" s="51"/>
+      <c r="AE51" s="51">
+        <v>10</v>
+      </c>
+      <c r="AF51" s="51">
+        <v>10</v>
+      </c>
+      <c r="AG51" s="51"/>
+      <c r="AH51" s="51">
+        <v>10</v>
+      </c>
+      <c r="AI51" s="51"/>
+      <c r="AJ51" s="51"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:36" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="F52" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="G52" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="H52" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="I52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="J52" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="53">
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="53">
         <v>625000</v>
       </c>
-      <c r="J52" s="53">
+      <c r="N52" s="53">
         <v>32</v>
       </c>
-      <c r="K52" s="53">
+      <c r="O52" s="53">
         <v>211839</v>
       </c>
-      <c r="L52" s="51">
+      <c r="P52" s="51">
         <f t="shared" si="3"/>
         <v>413065</v>
       </c>
-      <c r="M52" s="51">
+      <c r="Q52" s="51">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51">
-        <v>14</v>
-      </c>
-      <c r="S52" s="51">
-        <v>14</v>
-      </c>
-      <c r="T52" s="51">
-        <v>14</v>
-      </c>
-      <c r="U52" s="51">
-        <v>14</v>
-      </c>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
       <c r="V52" s="51">
         <v>14</v>
       </c>
@@ -4929,61 +5777,81 @@
         <v>14</v>
       </c>
       <c r="X52" s="51">
+        <v>14</v>
+      </c>
+      <c r="Y52" s="51">
+        <v>14</v>
+      </c>
+      <c r="Z52" s="51">
+        <v>14</v>
+      </c>
+      <c r="AA52" s="51">
+        <v>14</v>
+      </c>
+      <c r="AB52" s="51">
         <v>12</v>
       </c>
-      <c r="Y52" s="51"/>
-      <c r="Z52" s="51"/>
-      <c r="AA52" s="51"/>
-      <c r="AB52" s="51"/>
       <c r="AC52" s="51"/>
       <c r="AD52" s="51"/>
       <c r="AE52" s="51"/>
       <c r="AF52" s="51"/>
+      <c r="AG52" s="51"/>
+      <c r="AH52" s="51"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="51"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="18">
+      <c r="F53" s="18">
         <v>802189</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="G53" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="H53" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="I53" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="67" t="s">
+      <c r="J53" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="K53" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="58">
+      <c r="L53" s="23"/>
+      <c r="M53" s="58">
         <v>57600</v>
       </c>
-      <c r="J53" s="58">
+      <c r="N53" s="58">
         <v>150</v>
       </c>
-      <c r="K53" s="58">
+      <c r="O53" s="58">
         <v>40704</v>
       </c>
-      <c r="L53" s="51">
+      <c r="P53" s="51">
         <f t="shared" si="3"/>
         <v>16896</v>
       </c>
-      <c r="M53" s="51">
+      <c r="Q53" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
       <c r="R53" s="51"/>
       <c r="S53" s="51"/>
       <c r="T53" s="51"/>
@@ -4999,67 +5867,79 @@
       <c r="AD53" s="51"/>
       <c r="AE53" s="51"/>
       <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="18">
+      <c r="F54" s="18">
         <v>802189</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="G54" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="H54" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="I54" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="67" t="s">
+      <c r="J54" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="K54" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="58">
+      <c r="L54" s="23"/>
+      <c r="M54" s="58">
         <v>57600</v>
       </c>
-      <c r="J54" s="58">
+      <c r="N54" s="58">
         <v>150</v>
       </c>
-      <c r="K54" s="58">
+      <c r="O54" s="58">
         <v>56894</v>
       </c>
-      <c r="L54" s="51">
+      <c r="P54" s="51">
         <f t="shared" si="3"/>
         <v>620</v>
       </c>
-      <c r="M54" s="51">
+      <c r="Q54" s="51">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="N54" s="51">
+      <c r="R54" s="51">
         <v>22</v>
       </c>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51">
+      <c r="S54" s="51"/>
+      <c r="T54" s="51">
         <v>20</v>
       </c>
-      <c r="Q54" s="51">
+      <c r="U54" s="51">
         <v>20</v>
       </c>
-      <c r="R54" s="51">
+      <c r="V54" s="51">
         <v>20</v>
       </c>
-      <c r="S54" s="51">
+      <c r="W54" s="51">
         <v>4</v>
       </c>
-      <c r="T54" s="51"/>
-      <c r="U54" s="51"/>
-      <c r="V54" s="51"/>
-      <c r="W54" s="51"/>
       <c r="X54" s="51"/>
       <c r="Y54" s="51"/>
       <c r="Z54" s="51"/>
@@ -5069,66 +5949,70 @@
       <c r="AD54" s="51"/>
       <c r="AE54" s="51"/>
       <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="51"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+    <row r="55" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="18">
+      <c r="F55" s="18">
         <v>802189</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="G55" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="H55" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="I55" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F55" s="66" t="s">
+      <c r="J55" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="K55" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="59">
+      <c r="L55" s="23"/>
+      <c r="M55" s="59">
         <v>57600</v>
       </c>
-      <c r="J55" s="59">
+      <c r="N55" s="59">
         <v>16</v>
       </c>
-      <c r="K55" s="59">
+      <c r="O55" s="59">
         <v>2496</v>
       </c>
-      <c r="L55" s="51">
+      <c r="P55" s="51">
         <f t="shared" si="3"/>
         <v>54954</v>
       </c>
-      <c r="M55" s="51">
+      <c r="Q55" s="51">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="51"/>
       <c r="R55" s="51"/>
-      <c r="S55" s="51">
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51">
         <v>16</v>
-      </c>
-      <c r="T55" s="51">
-        <v>20</v>
-      </c>
-      <c r="U55" s="51">
-        <v>20</v>
-      </c>
-      <c r="V55" s="51">
-        <v>20</v>
-      </c>
-      <c r="W55" s="51">
-        <v>20</v>
       </c>
       <c r="X55" s="51">
         <v>20</v>
@@ -5137,81 +6021,101 @@
         <v>20</v>
       </c>
       <c r="Z55" s="51">
+        <v>20</v>
+      </c>
+      <c r="AA55" s="51">
+        <v>20</v>
+      </c>
+      <c r="AB55" s="51">
+        <v>20</v>
+      </c>
+      <c r="AC55" s="51">
+        <v>20</v>
+      </c>
+      <c r="AD55" s="51">
         <v>14</v>
       </c>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="51"/>
-      <c r="AC55" s="51"/>
-      <c r="AD55" s="51"/>
       <c r="AE55" s="51"/>
       <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="51"/>
+      <c r="AJ55" s="51"/>
     </row>
-    <row r="56" spans="1:32" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="36" t="s">
+    <row r="56" spans="1:36" s="5" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="43">
+      <c r="F56" s="43">
         <v>802684</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="G56" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="H56" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="I56" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="J56" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="K56" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="59">
+      <c r="L56" s="23"/>
+      <c r="M56" s="59">
         <v>625000</v>
       </c>
-      <c r="J56" s="59">
+      <c r="N56" s="59">
         <v>36</v>
       </c>
-      <c r="K56" s="59">
+      <c r="O56" s="59">
         <v>420160</v>
       </c>
-      <c r="L56" s="51">
+      <c r="P56" s="51">
         <f t="shared" si="3"/>
         <v>204786</v>
       </c>
-      <c r="M56" s="51">
+      <c r="Q56" s="51">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="N56" s="60">
+      <c r="R56" s="60">
         <v>4</v>
       </c>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60">
-        <v>9</v>
-      </c>
-      <c r="Q56" s="60">
-        <v>9</v>
-      </c>
-      <c r="R56" s="60">
-        <v>9</v>
-      </c>
-      <c r="S56" s="60">
-        <v>9</v>
-      </c>
+      <c r="S56" s="60"/>
       <c r="T56" s="60">
         <v>9</v>
       </c>
       <c r="U56" s="60">
+        <v>9</v>
+      </c>
+      <c r="V56" s="60">
+        <v>9</v>
+      </c>
+      <c r="W56" s="60">
+        <v>9</v>
+      </c>
+      <c r="X56" s="60">
+        <v>9</v>
+      </c>
+      <c r="Y56" s="60">
         <v>5</v>
       </c>
-      <c r="V56" s="60"/>
-      <c r="W56" s="60"/>
-      <c r="X56" s="60"/>
-      <c r="Y56" s="60"/>
       <c r="Z56" s="60"/>
       <c r="AA56" s="60"/>
       <c r="AB56" s="60"/>
@@ -5219,121 +6123,145 @@
       <c r="AD56" s="60"/>
       <c r="AE56" s="60"/>
       <c r="AF56" s="60"/>
+      <c r="AG56" s="60"/>
+      <c r="AH56" s="60"/>
+      <c r="AI56" s="60"/>
+      <c r="AJ56" s="60"/>
     </row>
-    <row r="57" spans="1:32" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="36" t="s">
+    <row r="57" spans="1:36" s="5" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="F57" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="G57" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="H57" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="I57" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="J57" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="59">
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="59">
         <v>625000</v>
       </c>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59">
+      <c r="N57" s="59"/>
+      <c r="O57" s="59">
         <v>0</v>
       </c>
-      <c r="L57" s="51">
+      <c r="P57" s="51">
         <f t="shared" si="3"/>
         <v>624950</v>
       </c>
-      <c r="M57" s="51">
+      <c r="Q57" s="51">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
       <c r="R57" s="60"/>
       <c r="S57" s="60"/>
       <c r="T57" s="60"/>
-      <c r="U57" s="60">
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60">
         <v>4</v>
-      </c>
-      <c r="V57" s="60">
-        <v>9</v>
-      </c>
-      <c r="W57" s="60">
-        <v>9</v>
-      </c>
-      <c r="X57" s="60">
-        <v>9</v>
-      </c>
-      <c r="Y57" s="60">
-        <v>9</v>
       </c>
       <c r="Z57" s="60">
         <v>9</v>
       </c>
       <c r="AA57" s="60">
+        <v>9</v>
+      </c>
+      <c r="AB57" s="60">
+        <v>9</v>
+      </c>
+      <c r="AC57" s="60">
+        <v>9</v>
+      </c>
+      <c r="AD57" s="60">
+        <v>9</v>
+      </c>
+      <c r="AE57" s="60">
         <v>1</v>
       </c>
-      <c r="AB57" s="60"/>
-      <c r="AC57" s="60"/>
-      <c r="AD57" s="60"/>
-      <c r="AE57" s="60"/>
       <c r="AF57" s="60"/>
+      <c r="AG57" s="60"/>
+      <c r="AH57" s="60"/>
+      <c r="AI57" s="60"/>
+      <c r="AJ57" s="60"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="18">
+      <c r="F58" s="18">
         <v>802189</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="G58" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="H58" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="I58" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F58" s="67" t="s">
+      <c r="J58" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="K58" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="54">
+      <c r="L58" s="23"/>
+      <c r="M58" s="54">
         <v>57600</v>
       </c>
-      <c r="J58" s="54">
+      <c r="N58" s="54">
         <v>150</v>
       </c>
-      <c r="K58" s="54">
+      <c r="O58" s="54">
         <v>35328</v>
       </c>
-      <c r="L58" s="51">
+      <c r="P58" s="51">
         <f t="shared" si="3"/>
         <v>22272</v>
       </c>
-      <c r="M58" s="51">
+      <c r="Q58" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
       <c r="R58" s="51"/>
       <c r="S58" s="51"/>
       <c r="T58" s="51"/>
@@ -5349,73 +6277,85 @@
       <c r="AD58" s="51"/>
       <c r="AE58" s="51"/>
       <c r="AF58" s="51"/>
+      <c r="AG58" s="51"/>
+      <c r="AH58" s="51"/>
+      <c r="AI58" s="51"/>
+      <c r="AJ58" s="51"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D59" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="18">
+      <c r="F59" s="18">
         <v>802189</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="G59" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="H59" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="I59" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="66" t="s">
+      <c r="J59" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="K59" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="53">
+      <c r="L59" s="23"/>
+      <c r="M59" s="53">
         <v>57600</v>
       </c>
-      <c r="J59" s="53">
+      <c r="N59" s="53">
         <v>129</v>
       </c>
-      <c r="K59" s="53">
+      <c r="O59" s="53">
         <v>38400</v>
       </c>
-      <c r="L59" s="51">
+      <c r="P59" s="51">
         <f t="shared" si="3"/>
         <v>19079</v>
       </c>
-      <c r="M59" s="51">
+      <c r="Q59" s="51">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="N59" s="51">
-        <v>20</v>
-      </c>
-      <c r="O59" s="51"/>
-      <c r="P59" s="51">
-        <v>20</v>
-      </c>
-      <c r="Q59" s="51">
-        <v>20</v>
-      </c>
       <c r="R59" s="51">
         <v>20</v>
       </c>
-      <c r="S59" s="51">
-        <v>20</v>
-      </c>
+      <c r="S59" s="51"/>
       <c r="T59" s="51">
         <v>20</v>
       </c>
       <c r="U59" s="51">
+        <v>20</v>
+      </c>
+      <c r="V59" s="51">
+        <v>20</v>
+      </c>
+      <c r="W59" s="51">
+        <v>20</v>
+      </c>
+      <c r="X59" s="51">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="51">
         <v>1</v>
       </c>
-      <c r="V59" s="51"/>
-      <c r="W59" s="51"/>
-      <c r="X59" s="51"/>
-      <c r="Y59" s="51"/>
       <c r="Z59" s="51"/>
       <c r="AA59" s="51"/>
       <c r="AB59" s="51"/>
@@ -5423,64 +6363,68 @@
       <c r="AD59" s="51"/>
       <c r="AE59" s="51"/>
       <c r="AF59" s="51"/>
+      <c r="AG59" s="51"/>
+      <c r="AH59" s="51"/>
+      <c r="AI59" s="51"/>
+      <c r="AJ59" s="51"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
+    <row r="60" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="18">
+      <c r="F60" s="18">
         <v>802189</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="G60" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="H60" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="I60" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="66" t="s">
+      <c r="J60" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="53">
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="53">
         <v>57600</v>
       </c>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53">
+      <c r="N60" s="53"/>
+      <c r="O60" s="53">
         <v>0</v>
       </c>
-      <c r="L60" s="51">
+      <c r="P60" s="51">
         <f t="shared" si="3"/>
         <v>57450</v>
       </c>
-      <c r="M60" s="51">
+      <c r="Q60" s="51">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="51"/>
       <c r="R60" s="51"/>
       <c r="S60" s="51"/>
       <c r="T60" s="51"/>
-      <c r="U60" s="51">
+      <c r="U60" s="51"/>
+      <c r="V60" s="51"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51">
         <v>19</v>
-      </c>
-      <c r="V60" s="51">
-        <v>20</v>
-      </c>
-      <c r="W60" s="51">
-        <v>20</v>
-      </c>
-      <c r="X60" s="51">
-        <v>20</v>
-      </c>
-      <c r="Y60" s="51">
-        <v>20</v>
       </c>
       <c r="Z60" s="51">
         <v>20</v>
@@ -5489,57 +6433,77 @@
         <v>20</v>
       </c>
       <c r="AB60" s="51">
+        <v>20</v>
+      </c>
+      <c r="AC60" s="51">
+        <v>20</v>
+      </c>
+      <c r="AD60" s="51">
+        <v>20</v>
+      </c>
+      <c r="AE60" s="51">
+        <v>20</v>
+      </c>
+      <c r="AF60" s="51">
         <v>11</v>
       </c>
-      <c r="AC60" s="51"/>
-      <c r="AD60" s="51"/>
-      <c r="AE60" s="51"/>
-      <c r="AF60" s="51"/>
+      <c r="AG60" s="51"/>
+      <c r="AH60" s="51"/>
+      <c r="AI60" s="51"/>
+      <c r="AJ60" s="51"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
+    <row r="61" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="D61" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B61" s="47">
+      <c r="F61" s="47">
         <v>802190</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="G61" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="H61" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="I61" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F61" s="67" t="s">
+      <c r="J61" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="K61" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="54">
+      <c r="L61" s="23"/>
+      <c r="M61" s="54">
         <v>95000</v>
       </c>
-      <c r="J61" s="54">
+      <c r="N61" s="54">
         <v>100</v>
       </c>
-      <c r="K61" s="54">
+      <c r="O61" s="54">
         <v>71100</v>
       </c>
-      <c r="L61" s="51">
+      <c r="P61" s="51">
         <f t="shared" si="3"/>
         <v>23900</v>
       </c>
-      <c r="M61" s="51">
+      <c r="Q61" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
       <c r="R61" s="51"/>
       <c r="S61" s="51"/>
       <c r="T61" s="51"/>
@@ -5555,61 +6519,73 @@
       <c r="AD61" s="51"/>
       <c r="AE61" s="51"/>
       <c r="AF61" s="51"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="47">
+      <c r="F62" s="47">
         <v>802190</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="G62" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="H62" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="I62" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F62" s="67" t="s">
+      <c r="J62" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="K62" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="54">
+      <c r="L62" s="23"/>
+      <c r="M62" s="54">
         <v>95000</v>
       </c>
-      <c r="J62" s="54">
+      <c r="N62" s="54">
         <v>100</v>
       </c>
-      <c r="K62" s="54">
+      <c r="O62" s="54">
         <v>77900</v>
       </c>
-      <c r="L62" s="51">
+      <c r="P62" s="51">
         <f t="shared" si="3"/>
         <v>17080</v>
       </c>
-      <c r="M62" s="51">
+      <c r="Q62" s="51">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N62" s="51">
+      <c r="R62" s="51">
         <v>9</v>
       </c>
-      <c r="O62" s="51"/>
-      <c r="P62" s="51">
+      <c r="S62" s="51"/>
+      <c r="T62" s="51">
         <v>9</v>
       </c>
-      <c r="Q62" s="51">
+      <c r="U62" s="51">
         <v>2</v>
       </c>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
       <c r="V62" s="51"/>
       <c r="W62" s="51"/>
       <c r="X62" s="51"/>
@@ -5621,64 +6597,68 @@
       <c r="AD62" s="51"/>
       <c r="AE62" s="51"/>
       <c r="AF62" s="51"/>
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="51"/>
+      <c r="AJ62" s="51"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
+    <row r="63" spans="1:36" ht="66" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="47">
+      <c r="F63" s="47">
         <v>802190</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="G63" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="H63" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="I63" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F63" s="66" t="s">
+      <c r="J63" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="K63" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="53">
+      <c r="L63" s="23"/>
+      <c r="M63" s="53">
         <v>95000</v>
       </c>
-      <c r="J63" s="53">
+      <c r="N63" s="53">
         <v>27</v>
       </c>
-      <c r="K63" s="53">
+      <c r="O63" s="53">
         <v>21250</v>
       </c>
-      <c r="L63" s="51">
+      <c r="P63" s="51">
         <f t="shared" si="3"/>
         <v>73652</v>
       </c>
-      <c r="M63" s="51">
+      <c r="Q63" s="51">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="51">
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51">
         <v>7</v>
-      </c>
-      <c r="R63" s="51">
-        <v>9</v>
-      </c>
-      <c r="S63" s="51">
-        <v>9</v>
-      </c>
-      <c r="T63" s="51">
-        <v>9</v>
-      </c>
-      <c r="U63" s="51">
-        <v>9</v>
       </c>
       <c r="V63" s="51">
         <v>9</v>
@@ -5699,57 +6679,77 @@
         <v>9</v>
       </c>
       <c r="AB63" s="51">
+        <v>9</v>
+      </c>
+      <c r="AC63" s="51">
+        <v>9</v>
+      </c>
+      <c r="AD63" s="51">
+        <v>9</v>
+      </c>
+      <c r="AE63" s="51">
+        <v>9</v>
+      </c>
+      <c r="AF63" s="51">
         <v>1</v>
       </c>
-      <c r="AC63" s="51"/>
-      <c r="AD63" s="51"/>
-      <c r="AE63" s="51"/>
-      <c r="AF63" s="51"/>
+      <c r="AG63" s="51"/>
+      <c r="AH63" s="51"/>
+      <c r="AI63" s="51"/>
+      <c r="AJ63" s="51"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:36" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="F64" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="G64" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="H64" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="I64" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="J64" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="K64" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="54">
+      <c r="L64" s="23"/>
+      <c r="M64" s="54">
         <v>1500000</v>
       </c>
-      <c r="J64" s="54">
+      <c r="N64" s="54">
         <v>300</v>
       </c>
-      <c r="K64" s="54">
+      <c r="O64" s="54">
         <v>1486461</v>
       </c>
-      <c r="L64" s="51">
+      <c r="P64" s="51">
         <f t="shared" si="3"/>
         <v>13539</v>
       </c>
-      <c r="M64" s="51">
+      <c r="Q64" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N64" s="51"/>
-      <c r="O64" s="51"/>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="51"/>
       <c r="R64" s="51"/>
       <c r="S64" s="51"/>
       <c r="T64" s="51"/>
@@ -5765,63 +6765,67 @@
       <c r="AD64" s="51"/>
       <c r="AE64" s="51"/>
       <c r="AF64" s="51"/>
+      <c r="AG64" s="51"/>
+      <c r="AH64" s="51"/>
+      <c r="AI64" s="51"/>
+      <c r="AJ64" s="51"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
+    <row r="65" spans="1:36" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="F65" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="G65" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="H65" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="I65" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="J65" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="K65" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="23"/>
-      <c r="I65" s="53">
+      <c r="L65" s="23"/>
+      <c r="M65" s="53">
         <v>1500000</v>
       </c>
-      <c r="J65" s="53">
+      <c r="N65" s="53">
         <v>140</v>
       </c>
-      <c r="K65" s="53">
+      <c r="O65" s="53">
         <v>642160</v>
       </c>
-      <c r="L65" s="51">
+      <c r="P65" s="51">
         <f t="shared" si="3"/>
         <v>857536</v>
       </c>
-      <c r="M65" s="51">
+      <c r="Q65" s="51">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="N65" s="51">
+      <c r="R65" s="51">
         <v>4</v>
       </c>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51">
-        <v>35</v>
-      </c>
-      <c r="Q65" s="51">
-        <v>35</v>
-      </c>
-      <c r="R65" s="51">
-        <v>35</v>
-      </c>
-      <c r="S65" s="51">
-        <v>35</v>
-      </c>
+      <c r="S65" s="51"/>
       <c r="T65" s="51">
         <v>35</v>
       </c>
@@ -5835,74 +6839,94 @@
         <v>35</v>
       </c>
       <c r="X65" s="51">
+        <v>35</v>
+      </c>
+      <c r="Y65" s="51">
+        <v>35</v>
+      </c>
+      <c r="Z65" s="51">
+        <v>35</v>
+      </c>
+      <c r="AA65" s="51">
+        <v>35</v>
+      </c>
+      <c r="AB65" s="51">
         <v>20</v>
       </c>
-      <c r="Y65" s="51"/>
-      <c r="Z65" s="51"/>
-      <c r="AA65" s="51"/>
-      <c r="AB65" s="51"/>
       <c r="AC65" s="51"/>
       <c r="AD65" s="51"/>
       <c r="AE65" s="51"/>
       <c r="AF65" s="51"/>
+      <c r="AG65" s="51"/>
+      <c r="AH65" s="51"/>
+      <c r="AI65" s="51"/>
+      <c r="AJ65" s="51"/>
     </row>
-    <row r="66" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:36" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="D66" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="F66" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="G66" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="H66" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="I66" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="J66" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="53">
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="53">
         <v>625000</v>
       </c>
-      <c r="J66" s="53">
+      <c r="N66" s="53">
         <v>46</v>
       </c>
-      <c r="K66" s="53">
+      <c r="O66" s="53">
         <v>297318</v>
       </c>
-      <c r="L66" s="51">
+      <c r="P66" s="51">
         <f t="shared" si="3"/>
         <v>327613</v>
       </c>
-      <c r="M66" s="51">
+      <c r="Q66" s="51">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="N66" s="51"/>
-      <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="51">
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51">
         <v>16</v>
       </c>
-      <c r="R66" s="51">
+      <c r="V66" s="51">
         <v>18</v>
       </c>
-      <c r="S66" s="51">
+      <c r="W66" s="51">
         <v>18</v>
       </c>
-      <c r="T66" s="51">
+      <c r="X66" s="51">
         <v>17</v>
       </c>
-      <c r="U66" s="51"/>
-      <c r="V66" s="51"/>
-      <c r="W66" s="51"/>
-      <c r="X66" s="51"/>
       <c r="Y66" s="51"/>
       <c r="Z66" s="51"/>
       <c r="AA66" s="51"/>
@@ -5911,117 +6935,141 @@
       <c r="AD66" s="51"/>
       <c r="AE66" s="51"/>
       <c r="AF66" s="51"/>
+      <c r="AG66" s="51"/>
+      <c r="AH66" s="51"/>
+      <c r="AI66" s="51"/>
+      <c r="AJ66" s="51"/>
     </row>
-    <row r="67" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
+    <row r="67" spans="1:36" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="26">
+      <c r="F67" s="26">
         <v>802687</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="G67" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="H67" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="I67" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="J67" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="53">
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="53">
         <v>1000000</v>
       </c>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53">
+      <c r="N67" s="53"/>
+      <c r="O67" s="53">
         <v>0</v>
       </c>
-      <c r="L67" s="51">
+      <c r="P67" s="51">
         <f t="shared" si="3"/>
         <v>999900</v>
       </c>
-      <c r="M67" s="51">
-        <f>SUM(N67:AF67)</f>
+      <c r="Q67" s="51">
+        <f>SUM(R67:AJ67)</f>
         <v>100</v>
       </c>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="51"/>
       <c r="R67" s="51"/>
       <c r="S67" s="51"/>
-      <c r="T67" s="51">
+      <c r="T67" s="51"/>
+      <c r="U67" s="51"/>
+      <c r="V67" s="51"/>
+      <c r="W67" s="51"/>
+      <c r="X67" s="51">
         <v>1</v>
-      </c>
-      <c r="U67" s="51">
-        <v>18</v>
-      </c>
-      <c r="V67" s="51">
-        <v>18</v>
-      </c>
-      <c r="W67" s="51">
-        <v>18</v>
-      </c>
-      <c r="X67" s="51">
-        <v>18</v>
       </c>
       <c r="Y67" s="51">
         <v>18</v>
       </c>
       <c r="Z67" s="51">
+        <v>18</v>
+      </c>
+      <c r="AA67" s="51">
+        <v>18</v>
+      </c>
+      <c r="AB67" s="51">
+        <v>18</v>
+      </c>
+      <c r="AC67" s="51">
+        <v>18</v>
+      </c>
+      <c r="AD67" s="51">
         <v>9</v>
       </c>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="51"/>
-      <c r="AC67" s="51"/>
-      <c r="AD67" s="51"/>
       <c r="AE67" s="51"/>
       <c r="AF67" s="51"/>
+      <c r="AG67" s="51"/>
+      <c r="AH67" s="51"/>
+      <c r="AI67" s="51"/>
+      <c r="AJ67" s="51"/>
     </row>
-    <row r="68" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:36" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="F68" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="G68" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21" t="s">
+      <c r="H68" s="20"/>
+      <c r="I68" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="J68" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="K68" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="23"/>
-      <c r="I68" s="53">
+      <c r="L68" s="23"/>
+      <c r="M68" s="53">
         <v>2</v>
       </c>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53">
+      <c r="N68" s="53"/>
+      <c r="O68" s="53">
         <v>0</v>
       </c>
-      <c r="L68" s="51">
+      <c r="P68" s="51">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M68" s="51">
-        <f>SUM(N68:AF68)</f>
+      <c r="Q68" s="51">
+        <f>SUM(R68:AJ68)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="51"/>
-      <c r="O68" s="51"/>
-      <c r="P68" s="51"/>
-      <c r="Q68" s="51"/>
       <c r="R68" s="51"/>
       <c r="S68" s="51"/>
       <c r="T68" s="51"/>
@@ -6037,47 +7085,59 @@
       <c r="AD68" s="51"/>
       <c r="AE68" s="51"/>
       <c r="AF68" s="51"/>
+      <c r="AG68" s="51"/>
+      <c r="AH68" s="51"/>
+      <c r="AI68" s="51"/>
+      <c r="AJ68" s="51"/>
     </row>
-    <row r="69" spans="1:32" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
+    <row r="69" spans="1:36" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="D69" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="F69" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="G69" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21" t="s">
+      <c r="H69" s="20"/>
+      <c r="I69" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="J69" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="K69" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="53">
+      <c r="L69" s="23"/>
+      <c r="M69" s="53">
         <v>10</v>
       </c>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53">
+      <c r="N69" s="53"/>
+      <c r="O69" s="53">
         <v>0</v>
       </c>
-      <c r="L69" s="51">
+      <c r="P69" s="51">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M69" s="51">
-        <f>SUM(N69:AF69)</f>
+      <c r="Q69" s="51">
+        <f>SUM(R69:AJ69)</f>
         <v>0</v>
       </c>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
       <c r="R69" s="51"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
@@ -6093,57 +7153,61 @@
       <c r="AD69" s="51"/>
       <c r="AE69" s="51"/>
       <c r="AF69" s="51"/>
+      <c r="AG69" s="51"/>
+      <c r="AH69" s="51"/>
+      <c r="AI69" s="51"/>
+      <c r="AJ69" s="51"/>
     </row>
-    <row r="70" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:36" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="D70" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="F70" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="G70" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="25" t="s">
+      <c r="H70" s="33"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="53">
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="53">
         <v>0</v>
       </c>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53">
+      <c r="N70" s="53"/>
+      <c r="O70" s="53">
         <v>0</v>
       </c>
-      <c r="L70" s="51">
+      <c r="P70" s="51">
         <f t="shared" si="3"/>
         <v>-91</v>
       </c>
-      <c r="M70" s="51">
-        <f>SUM(N70:AF70)</f>
+      <c r="Q70" s="51">
+        <f>SUM(R70:AJ70)</f>
         <v>91</v>
       </c>
-      <c r="N70" s="55"/>
-      <c r="O70" s="55"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="55"/>
       <c r="R70" s="55"/>
       <c r="S70" s="55"/>
-      <c r="T70" s="55">
-        <v>13</v>
-      </c>
-      <c r="U70" s="55">
-        <v>13</v>
-      </c>
-      <c r="V70" s="55">
-        <v>13</v>
-      </c>
-      <c r="W70" s="55">
-        <v>13</v>
-      </c>
+      <c r="T70" s="55"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="55"/>
+      <c r="W70" s="55"/>
       <c r="X70" s="55">
         <v>13</v>
       </c>
@@ -6153,48 +7217,32 @@
       <c r="Z70" s="55">
         <v>13</v>
       </c>
-      <c r="AA70" s="55"/>
-      <c r="AB70" s="55"/>
-      <c r="AC70" s="55"/>
-      <c r="AD70" s="55"/>
+      <c r="AA70" s="55">
+        <v>13</v>
+      </c>
+      <c r="AB70" s="55">
+        <v>13</v>
+      </c>
+      <c r="AC70" s="55">
+        <v>13</v>
+      </c>
+      <c r="AD70" s="55">
+        <v>13</v>
+      </c>
       <c r="AE70" s="55"/>
       <c r="AF70" s="55"/>
+      <c r="AG70" s="55"/>
+      <c r="AH70" s="55"/>
+      <c r="AI70" s="55"/>
+      <c r="AJ70" s="55"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:AK70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="69" man="1"/>
+    <brk id="11" max="69" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC5889-D4A7-4D3D-87ED-6D730E9079B1}">
-  <dimension ref="D19:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N22:N23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="70">
-        <v>44681</v>
-      </c>
-      <c r="E19" s="71">
-        <f>D19-44681</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>